--- a/excel/patient.xlsx
+++ b/excel/patient.xlsx
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mohit</t>
+          <t>Mohit</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,16 +483,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6341634162</t>
+          <t>7558721482</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>pred0.jpg</t>
+          <t>1.jpg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.05382210365496576</v>
+        <v>0.01000298507278785</v>
       </c>
     </row>
   </sheetData>
